--- a/Manual-Testing/Manual_Testing.xlsx
+++ b/Manual-Testing/Manual_Testing.xlsx
@@ -1,21 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="29328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="29426"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\K i n G\OneDrive\Desktop\Saucedemo_Manual_Testing_Project\Manual_Testing\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44EE5BCA-78A8-4574-85D9-BAA536BAC991}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EAB3DB7A-4306-4F39-912B-3EAC19CF88A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3870" yWindow="405" windowWidth="13740" windowHeight="10920" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Test Cases for Login " sheetId="1" r:id="rId1"/>
     <sheet name="Test Cases of Add to Cart" sheetId="3" r:id="rId2"/>
-    <sheet name="Bug Report for Login" sheetId="2" r:id="rId3"/>
+    <sheet name="Cart &amp; Checkout" sheetId="4" r:id="rId3"/>
+    <sheet name="Bug Report for Login" sheetId="2" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -33,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="104">
   <si>
     <t>Test Case ID</t>
   </si>
@@ -305,13 +306,93 @@
   </si>
   <si>
     <t xml:space="preserve">Item removed,cart badge decreased product not listed in cart </t>
+  </si>
+  <si>
+    <t>TC012</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Update item quantity in cart </t>
+  </si>
+  <si>
+    <t>At least one item in cart</t>
+  </si>
+  <si>
+    <t>1-Go to Cart 
+2-Click on quantity selector for an item
+3-Update the quantity (e.g, from 1 to 3)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Item quantity updates correctly 
+Total price reflect the update quantity </t>
+  </si>
+  <si>
+    <t>high</t>
+  </si>
+  <si>
+    <t>TC013</t>
+  </si>
+  <si>
+    <t>1-Go to Cart
+2-Click Checkout 
+3-Enter shipping information 
+4-Enter payment details
+5-Click Place Order</t>
+  </si>
+  <si>
+    <t>TC014</t>
+  </si>
+  <si>
+    <t>Checkout/Place Order</t>
+  </si>
+  <si>
+    <t>Apply discount code</t>
+  </si>
+  <si>
+    <t>1-Go to Cart
+2-Enter Valid discount code 
+3-Click Apply</t>
+  </si>
+  <si>
+    <t>TC015</t>
+  </si>
+  <si>
+    <t>Empty Cart</t>
+  </si>
+  <si>
+    <t>1-Click to Cart
+2-Click "Empty Cart"button 
+3-Confirm action</t>
+  </si>
+  <si>
+    <t>Cart is emptied 
+Cart badge show 0</t>
+  </si>
+  <si>
+    <t>TC016</t>
+  </si>
+  <si>
+    <t>View Cart Details</t>
+  </si>
+  <si>
+    <t>1-Go to Cart</t>
+  </si>
+  <si>
+    <t>All items,quantity and total price are displayed correctly</t>
+  </si>
+  <si>
+    <t>Order is successfully placed Confirmation message is displayed .
+Total price updated accordingly.</t>
+  </si>
+  <si>
+    <t>Discount applied correctly.
+Total price updated accordingly.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8">
+  <fonts count="9">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -373,6 +454,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -415,7 +504,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -466,6 +555,21 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -748,7 +852,7 @@
   <dimension ref="A1:G9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -981,8 +1085,8 @@
   </sheetPr>
   <dimension ref="A1:G4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -996,7 +1100,7 @@
     <col min="7" max="7" width="10.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="56.25">
+    <row r="1" spans="1:7" ht="18.75">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1094,6 +1198,171 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AA1C3CD7-7DFF-4822-B7C1-A3196C47DB58}">
+  <sheetPr>
+    <tabColor rgb="FFFFC000"/>
+  </sheetPr>
+  <dimension ref="A1:G6"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E4" sqref="E4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="26.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="22.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="36.7109375" customWidth="1"/>
+    <col min="5" max="5" width="36" customWidth="1"/>
+    <col min="6" max="6" width="13.140625" customWidth="1"/>
+    <col min="7" max="7" width="8.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" ht="18.75">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="65.25" customHeight="1">
+      <c r="A2" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="E2" s="22" t="s">
+        <v>86</v>
+      </c>
+      <c r="F2" s="8" t="s">
+        <v>87</v>
+      </c>
+      <c r="G2" s="9" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="75">
+      <c r="A3" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="E3" s="22" t="s">
+        <v>102</v>
+      </c>
+      <c r="F3" s="8" t="s">
+        <v>87</v>
+      </c>
+      <c r="G3" s="9" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="45">
+      <c r="A4" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>93</v>
+      </c>
+      <c r="E4" s="23" t="s">
+        <v>103</v>
+      </c>
+      <c r="F4" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="G4" s="9" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="45">
+      <c r="A5" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>96</v>
+      </c>
+      <c r="E5" s="22" t="s">
+        <v>97</v>
+      </c>
+      <c r="F5" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="G5" s="9" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="30">
+      <c r="A6" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>100</v>
+      </c>
+      <c r="E6" s="21" t="s">
+        <v>101</v>
+      </c>
+      <c r="F6" s="19" t="s">
+        <v>60</v>
+      </c>
+      <c r="G6" s="20" t="s">
+        <v>13</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr>
     <tabColor rgb="FF92D050"/>
